--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,16 +775,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,38 +803,44 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,38 +853,44 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,28 +1003,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -999,8 +1038,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1124,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,10 +1135,10 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1094,31 +1147,37 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,10 +1185,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1138,31 +1197,37 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1206,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1215,37 +1282,43 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1258,17 +1331,23 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,11 +1372,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1311,8 +1390,14 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1320,25 +1405,25 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1347,16 +1432,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,11 +1472,11 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1399,8 +1490,14 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,8 +1540,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1452,25 +1555,25 @@
         <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1479,16 +1582,22 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1496,25 +1605,25 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1523,16 +1632,22 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1734,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1743,16 +1882,22 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1760,25 +1905,25 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1787,16 +1932,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,8 +1990,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1848,25 +2005,25 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -1875,65 +2032,77 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1988,14 +2161,14 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2003,17 +2176,23 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,52 +2235,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
-        <v>300</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,13 +2335,19 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2164,23 +2361,23 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2188,8 +2385,14 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2208,32 +2411,38 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2259,25 +2468,31 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O47" s="3">
+        <v>2700</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2320,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2340,17 +2561,17 @@
       <c r="H49" s="3">
         <v>28600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="I49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,38 +2685,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2496,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2785,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2560,32 +2811,38 @@
       <c r="H54" s="3">
         <v>28600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+      <c r="I54" s="3">
+        <v>28600</v>
       </c>
       <c r="J54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2681,15 +2948,15 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2708,19 +2975,25 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2728,76 +3001,88 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2863,11 +3154,11 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2884,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-30200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-27700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-27000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-27100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-27100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="E76" s="3">
-        <v>28400</v>
+        <v>28300</v>
       </c>
       <c r="F76" s="3">
         <v>28500</v>
       </c>
       <c r="G76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="I76" s="3">
         <v>28600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>28600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>2100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2800</v>
       </c>
       <c r="M76" s="3">
         <v>2800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
+      <c r="N76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O76" s="3">
+        <v>2800</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,57 +3895,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3576,25 +3965,25 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3603,16 +3992,22 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3902,23 +4335,23 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3929,16 +4362,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3969,14 +4410,14 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3990,17 +4431,23 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,34 +4540,40 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4123,16 +4582,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4334,23 +4825,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4361,16 +4852,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4428,14 +4931,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4455,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,16 +785,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,8 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -818,11 +825,11 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -831,16 +838,19 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,8 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -868,11 +878,11 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -881,16 +891,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,29 +1040,29 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,31 +1152,32 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1159,7 +1186,7 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1168,16 +1195,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,22 +1215,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1209,7 +1239,7 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1218,16 +1248,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1279,25 +1313,28 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,23 +1342,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1337,17 +1374,20 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,8 +1418,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1396,37 +1436,40 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1438,16 +1481,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1478,8 +1524,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,37 +1595,40 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1588,45 +1640,48 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1638,16 +1693,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1879,54 +1949,57 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -1938,16 +2011,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,37 +2072,40 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2038,71 +2117,77 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2167,11 +2254,11 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2182,8 +2269,8 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2267,14 +2360,14 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
@@ -2282,8 +2375,8 @@
       <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>300</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,16 +2437,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2367,20 +2466,20 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2417,23 +2519,23 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
+      <c r="P46" s="3">
+        <v>300</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2474,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>2700</v>
@@ -2482,8 +2587,8 @@
       <c r="O47" s="3">
         <v>2700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>2700</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2567,14 +2678,14 @@
       <c r="J49" s="3">
         <v>28600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>28600</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,15 +2837,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2817,23 +2943,23 @@
       <c r="J54" s="3">
         <v>28600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="K54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3000</v>
       </c>
       <c r="O54" s="3">
         <v>3000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
+      <c r="P54" s="3">
+        <v>3000</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,31 +3021,31 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2922,8 +3053,8 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
@@ -2931,13 +3062,16 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -2954,12 +3088,12 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3007,23 +3144,23 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,40 +3180,40 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="P60" s="3">
+        <v>200</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3160,8 +3306,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3340,40 +3498,40 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
+      <c r="P66" s="3">
+        <v>200</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,49 +3772,52 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-29900</v>
       </c>
       <c r="J72" s="3">
         <v>-29900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="K72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-27700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-27100</v>
       </c>
       <c r="O72" s="3">
         <v>-27100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
+      <c r="P72" s="3">
+        <v>-27100</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3810,31 +3996,31 @@
         <v>28200</v>
       </c>
       <c r="E76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F76" s="3">
         <v>28300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>28600</v>
       </c>
       <c r="J76" s="3">
         <v>28600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="K76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>2100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2800</v>
       </c>
       <c r="N76" s="3">
         <v>2800</v>
@@ -3842,8 +4028,8 @@
       <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
+      <c r="P76" s="3">
+        <v>2800</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,92 +4090,98 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -3998,16 +4193,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,13 +4540,16 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4341,20 +4558,20 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -4368,16 +4585,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4416,11 +4637,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4437,8 +4658,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,16 +4773,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4563,20 +4793,20 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4588,16 +4818,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,13 +5059,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4831,20 +5077,20 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4858,16 +5104,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4937,11 +5189,11 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -788,21 +792,24 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -819,8 +826,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -828,11 +835,11 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -841,21 +848,24 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -872,8 +882,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -881,11 +891,11 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -894,16 +904,19 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,29 +1063,29 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,34 +1179,35 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1189,7 +1216,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1198,42 +1225,45 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1242,7 +1272,7 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1251,16 +1281,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,16 +1313,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1316,52 +1350,55 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1377,17 +1414,20 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,8 +1461,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1439,40 +1479,43 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1484,16 +1527,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1527,8 +1573,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,40 +1647,43 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1643,48 +1695,51 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1696,16 +1751,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,16 +1983,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1952,57 +2022,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2014,16 +2087,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,40 +2151,43 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2120,74 +2199,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,13 +2314,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2257,11 +2344,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2272,8 +2359,8 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,43 +2424,46 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -2378,8 +2471,8 @@
       <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>300</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2387,31 +2480,34 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2440,19 +2536,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2469,20 +2568,20 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2493,13 +2592,16 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2522,23 +2624,23 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>300</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2582,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>2700</v>
@@ -2590,8 +2695,8 @@
       <c r="P47" s="3">
         <v>2700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>2700</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2599,31 +2704,34 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2652,13 +2760,16 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28600</v>
+        <v>42800</v>
       </c>
       <c r="E49" s="3">
         <v>28600</v>
@@ -2681,14 +2792,14 @@
       <c r="K49" s="3">
         <v>28600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>28600</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,15 +2960,15 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,13 +3040,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28600</v>
+        <v>48500</v>
       </c>
       <c r="E54" s="3">
         <v>28600</v>
@@ -2946,23 +3072,23 @@
       <c r="K54" s="3">
         <v>28600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="L54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3000</v>
       </c>
       <c r="P54" s="3">
         <v>3000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
+      <c r="Q54" s="3">
+        <v>3000</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,43 +3142,44 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3056,8 +3187,8 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>100</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3065,16 +3196,19 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -3091,12 +3225,12 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3118,8 +3252,11 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3147,23 +3284,23 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>100</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3171,52 +3308,55 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>200</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
@@ -3224,8 +3364,11 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3309,8 +3455,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,52 +3644,55 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="Q66" s="3">
+        <v>200</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,52 +3946,55 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-29900</v>
       </c>
       <c r="K72" s="3">
         <v>-29900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="L72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-27700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-27100</v>
       </c>
       <c r="P72" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+      <c r="Q72" s="3">
+        <v>-27100</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,43 +4170,46 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28200</v>
+        <v>48000</v>
       </c>
       <c r="E76" s="3">
         <v>28200</v>
       </c>
       <c r="F76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G76" s="3">
         <v>28300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>28600</v>
       </c>
       <c r="K76" s="3">
         <v>28600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="L76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>2100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2800</v>
       </c>
       <c r="O76" s="3">
         <v>2800</v>
@@ -4031,8 +4217,8 @@
       <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+      <c r="Q76" s="3">
+        <v>2800</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,98 +4282,104 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -4196,16 +4391,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,17 +4757,20 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -4561,20 +4778,20 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4588,16 +4805,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4640,11 +4861,11 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4661,8 +4882,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,19 +5003,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4796,20 +5026,20 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4821,16 +5051,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,17 +5305,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5080,20 +5326,20 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5107,16 +5353,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,13 +5417,16 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5192,11 +5444,11 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5471,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -795,27 +802,33 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -829,49 +842,55 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -885,38 +904,44 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,23 +1105,23 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1090,8 +1129,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1105,31 +1144,37 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,31 +1231,33 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1213,54 +1266,60 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1269,31 +1328,37 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,22 +1379,24 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1353,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1362,49 +1429,55 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1417,40 +1490,46 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1464,11 +1543,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1482,46 +1561,52 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1530,16 +1615,22 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1576,11 +1667,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1594,8 +1685,14 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,46 +1747,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1698,54 +1801,60 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1754,16 +1863,22 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,22 +2119,28 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2025,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2034,54 +2173,60 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2090,16 +2235,22 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,46 +2305,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2202,77 +2359,89 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,20 +2486,22 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2347,14 +2520,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2362,17 +2535,23 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,20 +2606,26 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2453,50 +2638,56 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3">
-        <v>300</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
+        <v>300</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2509,11 +2700,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2539,25 +2730,31 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2571,23 +2768,23 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2595,20 +2792,26 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="3">
         <v>5700</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2627,32 +2830,38 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2690,36 +2899,42 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>2700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S47" s="3">
+        <v>2700</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2733,11 +2948,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2763,19 +2978,25 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F49" s="3">
         <v>42800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>28600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>28600</v>
       </c>
       <c r="G49" s="3">
         <v>28600</v>
@@ -2795,17 +3016,17 @@
       <c r="L49" s="3">
         <v>28600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="N49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2819,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,31 +3164,37 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2963,18 +3202,18 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2987,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,19 +3288,25 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F54" s="3">
         <v>48500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>28600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>28600</v>
       </c>
       <c r="G54" s="3">
         <v>28600</v>
@@ -3075,32 +3326,38 @@
       <c r="L54" s="3">
         <v>28600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>28600</v>
       </c>
       <c r="N54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,78 +3402,86 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -3228,15 +3495,15 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3255,31 +3522,37 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3287,88 +3560,100 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,16 +3708,22 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3458,11 +3749,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3479,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-34000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-30200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-29900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-27700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-27000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-27100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F76" s="3">
         <v>48000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>28200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>28200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>28300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>28500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>28400</v>
       </c>
       <c r="J76" s="3">
         <v>28500</v>
       </c>
       <c r="K76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="M76" s="3">
         <v>28600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>2100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2800</v>
       </c>
       <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
+      <c r="R76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S76" s="3">
+        <v>2800</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,107 +4662,119 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -4394,16 +4783,22 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,31 +4819,33 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4480,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,44 +5187,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4808,16 +5241,22 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,13 +5277,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4864,14 +5305,14 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4885,17 +5326,23 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,46 +5459,52 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5054,16 +5513,22 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,44 +5793,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5356,16 +5847,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,20 +5917,26 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5447,14 +5950,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5474,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,125 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -808,16 +816,22 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -848,55 +862,61 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -910,38 +930,44 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1054,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1122,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,23 +1151,23 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1135,8 +1175,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1150,23 +1190,29 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1176,11 +1222,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1212,8 +1258,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,37 +1285,39 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1272,60 +1326,66 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
@@ -1334,31 +1394,37 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,28 +1447,30 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1426,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1435,55 +1503,61 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-2400</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1496,31 +1570,37 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1531,11 +1611,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1549,11 +1629,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1567,52 +1647,58 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2800</v>
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1621,16 +1707,22 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1673,11 +1765,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,52 +1851,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2800</v>
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -1807,60 +1911,66 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2800</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -1869,16 +1979,22 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,28 +2259,34 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2170,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2179,60 +2319,66 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2800</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2241,16 +2387,22 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,52 +2463,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2800</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2365,83 +2523,95 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,26 +2660,28 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2526,14 +2700,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2541,17 +2715,23 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,26 +2792,32 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2644,38 +2830,44 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3">
-        <v>300</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
+        <v>300</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2683,17 +2875,17 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2706,11 +2898,11 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2736,31 +2928,37 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2774,23 +2972,23 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -2798,26 +2996,32 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5700</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2836,32 +3040,38 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2905,42 +3115,48 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>2700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U47" s="3">
+        <v>2700</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2954,11 +3170,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2984,25 +3200,31 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F49" s="3">
         <v>41900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>42300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>42800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>28600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>28600</v>
       </c>
       <c r="I49" s="3">
         <v>28600</v>
@@ -3022,17 +3244,17 @@
       <c r="N49" s="3">
         <v>28600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="O49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="P49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3404,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,11 +3421,11 @@
       <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3196,11 +3436,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3208,18 +3448,18 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3232,8 +3472,14 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,25 +3540,31 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>53700</v>
+      </c>
+      <c r="F54" s="3">
         <v>44500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>47100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>48500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>28600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>28600</v>
       </c>
       <c r="I54" s="3">
         <v>28600</v>
@@ -3332,32 +3584,38 @@
       <c r="N54" s="3">
         <v>28600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
+      <c r="O54" s="3">
+        <v>28600</v>
       </c>
       <c r="P54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3664,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,14 +3748,14 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3501,15 +3769,15 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3528,23 +3796,29 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3554,11 +3828,11 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3566,99 +3840,111 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3714,23 +4000,29 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3755,11 +4047,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4272,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-39600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-34000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-30200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-29900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-29900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-27000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-27100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-27100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4910,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F76" s="3">
         <v>42800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>45300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>48000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>28200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>28200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>28300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>28500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>28400</v>
       </c>
       <c r="L76" s="3">
         <v>28500</v>
       </c>
       <c r="M76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="O76" s="3">
         <v>28600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>28600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2800</v>
       </c>
       <c r="S76" s="3">
         <v>2800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
+      <c r="T76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>2800</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,119 +5046,131 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2800</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -4789,16 +5179,22 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,23 +5217,25 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4847,11 +5245,11 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,50 +5621,56 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5247,16 +5681,22 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,19 +5719,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5311,14 +5753,14 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5332,17 +5774,23 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,52 +5919,58 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5519,16 +5979,22 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,50 +6285,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5853,16 +6345,22 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,26 +6421,32 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5956,14 +6460,14 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6487,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -782,11 +785,11 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -822,36 +825,39 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -868,8 +874,8 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -877,11 +883,11 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -890,27 +896,30 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
-      </c>
-      <c r="W9" s="3">
-        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -918,8 +927,8 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -936,8 +945,8 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -945,11 +954,11 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -958,16 +967,19 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,13 +1004,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>1700</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,13 +1144,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1157,29 +1176,29 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1196,26 +1215,29 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1228,8 +1250,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,49 +1312,50 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1338,7 +1364,7 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -1347,57 +1373,60 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-9500</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1406,7 +1435,7 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1415,16 +1444,19 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,31 +1481,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1500,67 +1533,70 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-10800</v>
       </c>
       <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1576,17 +1612,20 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1594,7 +1633,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1602,8 +1641,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1617,8 +1656,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1635,8 +1674,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1653,55 +1692,58 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -1713,16 +1755,19 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1771,8 +1816,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -1789,8 +1834,11 @@
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,55 +1905,58 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -1917,63 +1968,66 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -1985,16 +2039,19 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,31 +2331,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2316,72 +2385,75 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2393,16 +2465,19 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,55 +2544,58 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2529,89 +2607,95 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,29 +2747,30 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2706,11 +2792,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2721,8 +2807,8 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
+      <c r="V41" s="3">
+        <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
@@ -2730,8 +2816,11 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,29 +2887,32 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2836,20 +2928,20 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
@@ -2857,8 +2949,8 @@
       <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>300</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -2866,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2881,14 +2976,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2904,8 +2999,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2934,34 +3029,37 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2978,20 +3076,20 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -3002,29 +3100,32 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5700</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3046,23 +3147,23 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
+      <c r="V46" s="3">
+        <v>300</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
@@ -3070,8 +3171,11 @@
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3121,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>2700</v>
@@ -3129,8 +3233,8 @@
       <c r="U47" s="3">
         <v>2700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>2700</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3138,8 +3242,11 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3150,16 +3257,16 @@
         <v>1200</v>
       </c>
       <c r="F48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1300</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>1300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3176,8 +3283,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3206,28 +3313,31 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E49" s="3">
         <v>51800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>51900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>41900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>28600</v>
       </c>
       <c r="J49" s="3">
         <v>28600</v>
@@ -3250,14 +3360,14 @@
       <c r="P49" s="3">
         <v>28600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>28600</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3274,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3427,8 +3546,8 @@
       <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3442,8 +3561,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3454,15 +3573,15 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3478,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,28 +3668,31 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E54" s="3">
         <v>53500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>28600</v>
       </c>
       <c r="J54" s="3">
         <v>28600</v>
@@ -3590,23 +3715,23 @@
       <c r="P54" s="3">
         <v>28600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="Q54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>3000</v>
       </c>
       <c r="U54" s="3">
         <v>3000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
+      <c r="V54" s="3">
+        <v>3000</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
@@ -3614,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,58 +3795,59 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3725,8 +3855,8 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>100</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
@@ -3734,13 +3864,16 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -3754,11 +3887,11 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3775,12 +3908,12 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3802,26 +3935,29 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3834,8 +3970,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3846,23 +3982,23 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="V59" s="3">
+        <v>100</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
@@ -3870,67 +4006,70 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
       </c>
       <c r="H60" s="3">
+        <v>700</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
+      <c r="V60" s="3">
+        <v>200</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
@@ -3938,17 +4077,20 @@
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -4006,26 +4148,29 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E62" s="3">
         <v>10800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4053,8 +4198,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4074,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,67 +4432,70 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E66" s="3">
         <v>13300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
+      <c r="V66" s="3">
+        <v>200</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
@@ -4346,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,67 +4814,70 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-42300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-29900</v>
       </c>
       <c r="P72" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="Q72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-27700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-27100</v>
       </c>
       <c r="U72" s="3">
         <v>-27100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
+      <c r="V72" s="3">
+        <v>-27100</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
@@ -4712,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,58 +5098,61 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E76" s="3">
         <v>40200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>28200</v>
       </c>
       <c r="J76" s="3">
         <v>28200</v>
       </c>
       <c r="K76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="L76" s="3">
         <v>28300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>28600</v>
       </c>
       <c r="P76" s="3">
         <v>28600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="Q76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>2100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>2800</v>
       </c>
       <c r="T76" s="3">
         <v>2800</v>
@@ -4975,8 +5160,8 @@
       <c r="U76" s="3">
         <v>2800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
+      <c r="V76" s="3">
+        <v>2800</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
@@ -4984,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,128 +5240,134 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -5185,16 +5379,19 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,15 +5428,15 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5251,8 +5449,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,32 +5840,35 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -5660,20 +5876,20 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5687,16 +5903,19 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5732,11 +5952,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5759,11 +5979,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5780,8 +6000,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5789,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,34 +6151,37 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -5960,20 +6189,20 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5985,16 +6214,19 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,32 +6533,35 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6324,20 +6569,20 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6351,16 +6596,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,29 +6675,32 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6466,11 +6717,11 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6493,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,121 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -780,22 +788,22 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -828,42 +836,48 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -877,64 +891,70 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -948,38 +968,44 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,20 +1031,22 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,20 +1181,26 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1179,23 +1219,23 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1203,8 +1243,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1218,32 +1258,38 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1253,11 +1299,11 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,46 +1365,48 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1361,69 +1415,75 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
@@ -1432,31 +1492,37 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,37 +1548,39 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1536,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1545,64 +1613,70 @@
         <v>100</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1615,40 +1689,46 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1659,11 +1739,11 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1677,11 +1757,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1695,61 +1775,67 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1758,16 +1844,22 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1819,11 +1911,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
@@ -1837,8 +1929,14 @@
       <c r="Y24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,61 +2006,67 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -1971,69 +2075,75 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -2042,16 +2152,22 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,37 +2468,43 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2388,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2397,69 +2537,75 @@
         <v>-100</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2468,16 +2614,22 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,61 +2699,67 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2610,92 +2768,104 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,35 +2920,37 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2795,14 +2969,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2810,17 +2984,23 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,35 +3070,41 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2931,43 +3117,49 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3">
-        <v>300</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
+        <v>300</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2979,17 +3171,17 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3002,11 +3194,11 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3032,40 +3224,46 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3079,23 +3277,23 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3103,35 +3301,41 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3150,32 +3354,38 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3228,51 +3438,57 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>2700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X47" s="3">
+        <v>2700</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
       </c>
       <c r="G48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3286,11 +3502,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3316,34 +3532,40 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F49" s="3">
         <v>60100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>51800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>51900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>41900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>42300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>28600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>28600</v>
       </c>
       <c r="L49" s="3">
         <v>28600</v>
@@ -3363,17 +3585,17 @@
       <c r="Q49" s="3">
         <v>28600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="R49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3387,8 +3609,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3763,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3549,11 +3789,11 @@
       <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3564,11 +3804,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3576,18 +3816,18 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>2600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3600,8 +3840,14 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,34 +3917,40 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F54" s="3">
         <v>66000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>53500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>53700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>44500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>47100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>48500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>28600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>28600</v>
       </c>
       <c r="L54" s="3">
         <v>28600</v>
@@ -3718,32 +3970,38 @@
       <c r="Q54" s="3">
         <v>28600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>28600</v>
       </c>
       <c r="S54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,91 +4056,99 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3890,14 +4158,14 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3911,15 +4179,15 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3938,32 +4206,38 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3973,11 +4247,11 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3985,118 +4259,130 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>0</v>
       </c>
       <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4151,32 +4437,38 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F62" s="3">
         <v>14700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4201,11 +4493,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4222,8 +4514,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F66" s="3">
         <v>18300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>0</v>
       </c>
       <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-47800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-42300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-40700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-39600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-36800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-34000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-31000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-30200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-30000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-29900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-27700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-27000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-27100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-27100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F76" s="3">
         <v>47700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>42800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>45300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>48000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>28500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>28400</v>
       </c>
       <c r="O76" s="3">
         <v>28500</v>
       </c>
       <c r="P76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="R76" s="3">
         <v>28600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>28600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>2100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>2800</v>
       </c>
       <c r="V76" s="3">
         <v>2800</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
+      <c r="W76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X76" s="3">
+        <v>2800</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,137 +5621,149 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -5382,16 +5772,22 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5813,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5431,18 +5829,18 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5452,11 +5850,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5488,8 +5886,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,59 +6271,65 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5906,16 +6340,22 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6381,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5955,14 +6397,14 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -5982,14 +6424,14 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -6003,17 +6445,23 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,61 +6608,67 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6217,16 +6677,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>700</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,59 +7022,65 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F100" s="3">
         <v>7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6599,16 +7091,22 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,35 +7176,41 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6720,14 +7224,14 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +7251,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,19 +786,19 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -802,11 +806,11 @@
       <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -842,45 +846,48 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>100</v>
       </c>
       <c r="AA8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -897,8 +904,8 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -906,11 +913,11 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -919,36 +926,39 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>200</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>100</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
         <v>100</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -956,8 +966,8 @@
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -974,8 +984,8 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -983,11 +993,11 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -996,16 +1006,19 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,23 +1046,24 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,12 +1218,12 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1225,29 +1245,29 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,23 +1299,23 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,8 +1328,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,58 +1393,59 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1427,7 +1454,7 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
@@ -1436,66 +1463,69 @@
         <v>0</v>
       </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1504,7 +1534,7 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -1513,16 +1543,19 @@
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,40 +1583,41 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
         <v>-1800</v>
       </c>
       <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1610,76 +1644,79 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6400</v>
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1695,34 +1732,37 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1730,8 +1770,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1745,8 +1785,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1763,8 +1803,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1781,64 +1821,67 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -1850,16 +1893,19 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1917,8 +1963,8 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>4</v>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,64 +2061,67 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -2081,72 +2133,75 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -2158,16 +2213,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,40 +2541,43 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
         <v>1800</v>
       </c>
       <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2534,81 +2604,84 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -2620,16 +2693,19 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,64 +2781,67 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -2774,98 +2853,104 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,38 +3008,39 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2975,11 +3062,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2990,8 +3077,8 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
+      <c r="Y41" s="3">
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
@@ -2999,8 +3086,11 @@
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3166,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3085,29 +3178,29 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3123,20 +3216,20 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
@@ -3144,8 +3237,8 @@
       <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>300</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
@@ -3153,8 +3246,11 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3162,7 +3258,7 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -3177,14 +3273,14 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3200,8 +3296,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3230,43 +3326,46 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3283,20 +3382,20 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3307,38 +3406,41 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -3360,23 +3462,23 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
+      <c r="Y46" s="3">
+        <v>300</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
@@ -3384,8 +3486,11 @@
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3444,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
         <v>2700</v>
@@ -3452,8 +3557,8 @@
       <c r="X47" s="3">
         <v>2700</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
+      <c r="Y47" s="3">
+        <v>2700</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
@@ -3461,19 +3566,22 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1200</v>
@@ -3482,16 +3590,16 @@
         <v>1200</v>
       </c>
       <c r="I48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+        <v>1300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3508,8 +3616,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3538,37 +3646,40 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E49" s="3">
         <v>59600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>59800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>60100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>51800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>51900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>41900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>28600</v>
       </c>
       <c r="M49" s="3">
         <v>28600</v>
@@ -3591,14 +3702,14 @@
       <c r="S49" s="3">
         <v>28600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>28600</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3795,8 +3915,8 @@
       <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>400</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -3810,8 +3930,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3822,15 +3942,15 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
         <v>2600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,37 +4046,40 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E54" s="3">
         <v>64300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>47100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>28600</v>
       </c>
       <c r="M54" s="3">
         <v>28600</v>
@@ -3976,23 +4102,23 @@
       <c r="S54" s="3">
         <v>28600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="T54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>2800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>3000</v>
       </c>
       <c r="X54" s="3">
         <v>3000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
+      <c r="Y54" s="3">
+        <v>3000</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
@@ -4000,8 +4126,11 @@
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,67 +4188,68 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4126,8 +4257,8 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
+      <c r="Y57" s="3">
+        <v>100</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
@@ -4135,8 +4266,11 @@
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4144,14 +4278,14 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4164,11 +4298,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -4185,12 +4319,12 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4212,35 +4346,38 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4253,8 +4390,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4265,23 +4402,23 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
+      <c r="Y59" s="3">
+        <v>100</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
@@ -4289,76 +4426,79 @@
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
+      <c r="Y60" s="3">
+        <v>200</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
@@ -4366,26 +4506,29 @@
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4443,35 +4586,38 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E62" s="3">
         <v>20600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4499,8 +4645,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4520,8 +4666,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,76 +4906,79 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E66" s="3">
         <v>23000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
       <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
+      <c r="Y66" s="3">
+        <v>200</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>4</v>
@@ -4828,8 +4986,11 @@
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,76 +5336,79 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-29900</v>
       </c>
       <c r="S72" s="3">
         <v>-29900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="T72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>-27700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-27100</v>
       </c>
       <c r="X72" s="3">
         <v>-27100</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
+      <c r="Y72" s="3">
+        <v>-27100</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
@@ -5242,8 +5416,11 @@
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,67 +5656,70 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E76" s="3">
         <v>41300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>28200</v>
       </c>
       <c r="M76" s="3">
         <v>28200</v>
       </c>
       <c r="N76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="O76" s="3">
         <v>28300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>28600</v>
       </c>
       <c r="S76" s="3">
         <v>28600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="T76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>2100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>2800</v>
       </c>
       <c r="W76" s="3">
         <v>2800</v>
@@ -5541,8 +5727,8 @@
       <c r="X76" s="3">
         <v>2800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
+      <c r="Y76" s="3">
+        <v>2800</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
@@ -5550,8 +5736,11 @@
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,146 +5816,152 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -5778,16 +5973,19 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,35 +6013,36 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5856,8 +6055,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,41 +6491,44 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -6319,20 +6536,20 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6346,16 +6563,19 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6403,11 +6624,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -6430,11 +6651,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6451,8 +6672,8 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6460,8 +6681,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,43 +6841,46 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -6658,20 +6888,20 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6683,16 +6913,19 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>700</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,41 +7271,44 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7070,20 +7316,20 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7097,16 +7343,19 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,38 +7431,41 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7230,11 +7482,11 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7509,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,127 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,10 +796,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -801,22 +808,22 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -849,16 +856,22 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,32 +881,32 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -907,38 +920,44 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,32 +967,32 @@
       <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -987,38 +1006,44 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>100</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,29 +1072,31 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1127,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,29 +1240,35 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>24000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1248,23 +1287,23 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1272,8 +1311,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1287,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1302,26 +1347,26 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,11 +1376,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1367,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,55 +1445,57 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1451,78 +1504,84 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
@@ -1531,31 +1590,37 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,46 +1649,48 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1647,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1656,73 +1723,79 @@
         <v>100</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-10800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1735,49 +1808,55 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-900</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1788,11 +1867,11 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1806,11 +1885,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
@@ -1824,70 +1903,76 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -1896,16 +1981,22 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1966,11 +2057,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>4</v>
@@ -1984,8 +2075,14 @@
       <c r="AB24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,70 +2161,76 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -2136,78 +2239,84 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2216,16 +2325,22 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,46 +2677,52 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2607,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2616,78 +2755,84 @@
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
@@ -2696,16 +2841,22 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,70 +2935,76 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
@@ -2856,101 +3013,113 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,44 +3180,46 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -3065,14 +3238,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -3080,17 +3253,23 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,8 +3348,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3181,32 +3366,32 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3219,53 +3404,59 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3">
-        <v>300</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
+      <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>300</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
@@ -3276,17 +3467,17 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3299,11 +3490,11 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3329,49 +3520,55 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3385,23 +3582,23 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
@@ -3409,44 +3606,50 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3465,32 +3668,38 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3552,60 +3761,66 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="X47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="3">
         <v>2700</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
+      <c r="Z47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>2700</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1200</v>
       </c>
       <c r="I48" s="3">
         <v>1200</v>
       </c>
       <c r="J48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3619,11 +3834,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3649,43 +3864,49 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F49" s="3">
         <v>59400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>59600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>59800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>60100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>51800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>51900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>41900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>42300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>42800</v>
-      </c>
-      <c r="M49" s="3">
-        <v>28600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>28600</v>
       </c>
       <c r="O49" s="3">
         <v>28600</v>
@@ -3705,17 +3926,17 @@
       <c r="T49" s="3">
         <v>28600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="U49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="V49" s="3">
+        <v>28600</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3729,8 +3950,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,13 +4122,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -3918,11 +4157,11 @@
       <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>400</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3933,11 +4172,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3945,18 +4184,18 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
         <v>2600</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3969,8 +4208,14 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,43 +4294,49 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F54" s="3">
         <v>63700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>64300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>65000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>66000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>53500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>53700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>44500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>47100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>48500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>28600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>28600</v>
       </c>
       <c r="O54" s="3">
         <v>28600</v>
@@ -4105,32 +4356,38 @@
       <c r="T54" s="3">
         <v>28600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
+      <c r="U54" s="3">
+        <v>28600</v>
       </c>
       <c r="V54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
         <v>2800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3000</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,109 +4448,117 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4301,14 +4568,14 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -4322,15 +4589,15 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4349,8 +4616,14 @@
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4358,32 +4631,32 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4393,11 +4666,11 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4405,136 +4678,148 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
+      <c r="U60" s="3">
+        <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4589,41 +4874,47 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>20600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>17800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>14700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>10800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4648,11 +4939,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4669,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5218,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F66" s="3">
         <v>22800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>23000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
+      <c r="U66" s="3">
+        <v>0</v>
       </c>
       <c r="V66" s="3">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-62400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-60900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-53900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-47800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-42300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-40700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-39600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-36800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-34000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-31900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-31500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-31000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-30200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-30000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-29900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>-27700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-27000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-27100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-27100</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +6024,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F76" s="3">
         <v>40900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>41300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>45300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>47700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>40200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>41200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>42800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>45300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>48000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>28200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>28200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>28500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>28400</v>
       </c>
       <c r="R76" s="3">
         <v>28500</v>
       </c>
       <c r="S76" s="3">
+        <v>28400</v>
+      </c>
+      <c r="T76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="U76" s="3">
         <v>28600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>28600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
         <v>2100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="X76" s="3">
-        <v>2800</v>
       </c>
       <c r="Y76" s="3">
         <v>2800</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
+      <c r="Z76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>2800</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,155 +6196,167 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
@@ -5976,16 +6365,22 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6409,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6029,26 +6426,26 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6058,11 +6455,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6094,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,68 +6921,74 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6566,16 +6999,22 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>1500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-700</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,28 +7043,30 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6633,8 +7074,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -6654,14 +7095,14 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -6675,17 +7116,23 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,16 +7297,22 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6861,53 +7320,53 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6916,16 +7375,22 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>700</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,68 +7759,74 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7346,16 +7837,22 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,44 +7931,50 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-900</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="F102" s="3">
         <v>-900</v>
       </c>
       <c r="G102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7485,14 +7988,14 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7512,6 +8015,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -802,19 +806,19 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -822,11 +826,11 @@
       <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -862,16 +866,19 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>300</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>100</v>
       </c>
       <c r="AD8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,29 +894,29 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -926,8 +933,8 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -935,11 +942,11 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -948,21 +955,24 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <v>200</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>100</v>
       </c>
       <c r="AD9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -973,20 +983,20 @@
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -994,8 +1004,8 @@
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -1012,8 +1022,8 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -1021,11 +1031,11 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
@@ -1034,16 +1044,19 @@
         <v>0</v>
       </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>100</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
       <c r="AD10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,32 +1087,33 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
+        <v>700</v>
+      </c>
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,32 +1263,35 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1293,29 +1313,29 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,23 +1376,23 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1382,8 +1405,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,67 +1473,68 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
-        <v>26300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1516,7 +1543,7 @@
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
@@ -1525,75 +1552,78 @@
         <v>0</v>
       </c>
       <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
@@ -1602,7 +1632,7 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -1611,16 +1641,19 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,49 +1684,50 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-1700</v>
       </c>
       <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1800</v>
       </c>
       <c r="H20" s="3">
         <v>-1800</v>
       </c>
       <c r="I20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1720,85 +1754,88 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-6900</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1814,43 +1851,46 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-900</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1858,8 +1898,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1873,8 +1913,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1891,8 +1931,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
@@ -1909,73 +1949,76 @@
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-20600</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
@@ -1987,16 +2030,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-900</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,8 +2109,8 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>4</v>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,73 +2216,76 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-20600</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
@@ -2245,81 +2297,84 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-900</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-20600</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
@@ -2331,16 +2386,19 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-900</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,49 +2750,52 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>1700</v>
       </c>
       <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1800</v>
       </c>
       <c r="H32" s="3">
         <v>1800</v>
       </c>
       <c r="I32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2752,90 +2822,93 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-20600</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
@@ -2847,16 +2920,19 @@
         <v>0</v>
       </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-900</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,73 +3017,76 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-20600</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
@@ -3019,107 +3098,113 @@
         <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-900</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,47 +3268,48 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -3244,11 +3331,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -3259,8 +3346,8 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
+      <c r="AB41" s="3">
+        <v>0</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>4</v>
@@ -3268,8 +3355,11 @@
       <c r="AD41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3372,29 +3465,29 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3410,20 +3503,20 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
@@ -3431,8 +3524,8 @@
       <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
+      <c r="AB43" s="3">
+        <v>300</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>4</v>
@@ -3440,25 +3533,28 @@
       <c r="AD43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -3473,14 +3569,14 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3496,8 +3592,8 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3526,52 +3622,55 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3588,20 +3687,20 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
@@ -3612,47 +3711,50 @@
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3674,23 +3776,23 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>300</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
+      <c r="AB46" s="3">
+        <v>300</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>4</v>
@@ -3698,8 +3800,11 @@
       <c r="AD46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="3">
         <v>2700</v>
@@ -3775,8 +3880,8 @@
       <c r="AA47" s="3">
         <v>2700</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
+      <c r="AB47" s="3">
+        <v>2700</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>4</v>
@@ -3784,28 +3889,31 @@
       <c r="AD47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>1200</v>
@@ -3814,16 +3922,16 @@
         <v>1200</v>
       </c>
       <c r="L48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M48" s="3">
         <v>1300</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+        <v>1300</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3840,8 +3948,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3870,46 +3978,49 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E49" s="3">
         <v>34700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>59400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>59600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>59800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>60100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>51800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>28600</v>
       </c>
       <c r="P49" s="3">
         <v>28600</v>
@@ -3932,14 +4043,14 @@
       <c r="V49" s="3">
         <v>28600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
+      <c r="W49" s="3">
+        <v>28600</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,16 +4245,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -4163,8 +4283,8 @@
       <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>400</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -4178,8 +4298,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -4190,15 +4310,15 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2600</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,46 +4423,49 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>28600</v>
       </c>
       <c r="P54" s="3">
         <v>28600</v>
@@ -4362,23 +4488,23 @@
       <c r="V54" s="3">
         <v>28600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="W54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
         <v>2800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>3000</v>
       </c>
       <c r="AA54" s="3">
         <v>3000</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
+      <c r="AB54" s="3">
+        <v>3000</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>4</v>
@@ -4386,8 +4512,11 @@
       <c r="AD54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,76 +4580,77 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4527,8 +4658,8 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
+      <c r="AB57" s="3">
+        <v>100</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
@@ -4536,32 +4667,35 @@
       <c r="AD57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>12700</v>
       </c>
       <c r="E58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4574,11 +4708,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -4595,12 +4729,12 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4622,44 +4756,47 @@
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4672,8 +4809,8 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4684,23 +4821,23 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
+      <c r="AB59" s="3">
+        <v>100</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
@@ -4708,85 +4845,88 @@
       <c r="AD59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E60" s="3">
         <v>8000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
+      <c r="AB60" s="3">
+        <v>200</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>4</v>
@@ -4794,35 +4934,38 @@
       <c r="AD60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4300</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4880,44 +5023,47 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E62" s="3">
         <v>14200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4945,8 +5091,8 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,85 +5379,88 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E66" s="3">
         <v>23000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
+      <c r="AB66" s="3">
+        <v>200</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>4</v>
@@ -5310,8 +5468,11 @@
       <c r="AD66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,85 +5857,88 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-42300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-29900</v>
       </c>
       <c r="V72" s="3">
         <v>-29900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="W72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-27700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-27100</v>
       </c>
       <c r="AA72" s="3">
         <v>-27100</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
+      <c r="AB72" s="3">
+        <v>-27100</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>4</v>
@@ -5772,8 +5946,11 @@
       <c r="AD72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,76 +6213,79 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E76" s="3">
         <v>15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>28200</v>
       </c>
       <c r="P76" s="3">
         <v>28200</v>
       </c>
       <c r="Q76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="R76" s="3">
         <v>28300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>28600</v>
       </c>
       <c r="V76" s="3">
         <v>28600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="W76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2100</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>2800</v>
       </c>
       <c r="Z76" s="3">
         <v>2800</v>
@@ -6107,8 +6293,8 @@
       <c r="AA76" s="3">
         <v>2800</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
+      <c r="AB76" s="3">
+        <v>2800</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>4</v>
@@ -6116,8 +6302,11 @@
       <c r="AD76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,164 +6391,170 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-20600</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
@@ -6371,16 +6566,19 @@
         <v>0</v>
       </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-900</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6432,23 +6631,23 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6461,8 +6660,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,50 +7141,53 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -6978,20 +7195,20 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -7005,16 +7222,19 @@
         <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>1500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-700</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7071,14 +7292,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -7101,11 +7322,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -7122,8 +7343,8 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7329,26 +7559,26 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -7356,20 +7586,20 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7381,16 +7611,19 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>700</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,50 +8008,53 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
         <v>900</v>
       </c>
       <c r="F100" s="3">
+        <v>900</v>
+      </c>
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>6100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7816,20 +8062,20 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7843,16 +8089,19 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-300</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,47 +8186,50 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7994,11 +8246,11 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRZM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>MRZM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +801,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -809,19 +813,19 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -829,11 +833,11 @@
       <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -869,21 +873,24 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>300</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>100</v>
       </c>
       <c r="AE8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -897,29 +904,29 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -936,8 +943,8 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -945,11 +952,11 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
@@ -958,24 +965,27 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
         <v>200</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>100</v>
       </c>
       <c r="AE9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -986,20 +996,20 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -1007,8 +1017,8 @@
       <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>100</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1035,8 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -1034,11 +1044,11 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
@@ -1047,16 +1057,19 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>100</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
       <c r="AE10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,35 +1101,36 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
       </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,35 +1283,38 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1316,29 +1336,29 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1355,8 +1375,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1379,23 +1402,23 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1408,8 +1431,8 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,70 +1500,71 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1546,7 +1573,7 @@
         <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
@@ -1555,78 +1582,81 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
@@ -1635,7 +1665,7 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
@@ -1644,16 +1674,19 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,52 +1718,53 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1800</v>
       </c>
       <c r="I20" s="3">
         <v>-1800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1757,88 +1791,91 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1854,46 +1891,49 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-900</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E22" s="3">
         <v>13400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1901,8 +1941,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1916,8 +1956,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1934,8 +1974,8 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
@@ -1952,76 +1992,79 @@
       <c r="AE22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
@@ -2033,16 +2076,19 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-900</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2112,8 +2158,8 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>4</v>
@@ -2130,8 +2176,11 @@
       <c r="AE24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,76 +2268,79 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
@@ -2300,84 +2352,87 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-900</v>
       </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
@@ -2389,16 +2444,19 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-900</v>
       </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,52 +2820,55 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1800</v>
       </c>
       <c r="I32" s="3">
         <v>1800</v>
       </c>
       <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2825,93 +2895,96 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
@@ -2923,16 +2996,19 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-900</v>
       </c>
-      <c r="AD33" s="3">
-        <v>0</v>
-      </c>
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,76 +3096,79 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
@@ -3101,110 +3180,116 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-900</v>
       </c>
-      <c r="AD35" s="3">
-        <v>0</v>
-      </c>
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,50 +3355,51 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -3334,11 +3421,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3349,8 +3436,8 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
+      <c r="AC41" s="3">
+        <v>0</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>4</v>
@@ -3358,8 +3445,11 @@
       <c r="AE41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,8 +3537,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3468,29 +3561,29 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3506,20 +3599,20 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>300</v>
@@ -3527,8 +3620,8 @@
       <c r="AB43" s="3">
         <v>300</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
+      <c r="AC43" s="3">
+        <v>300</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>4</v>
@@ -3536,8 +3629,11 @@
       <c r="AE43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3545,19 +3641,19 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3572,14 +3668,14 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3595,8 +3691,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3625,55 +3721,58 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3690,20 +3789,20 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
+      <c r="AB45" s="3">
+        <v>0</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>4</v>
@@ -3714,50 +3813,53 @@
       <c r="AE45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -3779,23 +3881,23 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>300</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
+      <c r="AC46" s="3">
+        <v>300</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>4</v>
@@ -3803,8 +3905,11 @@
       <c r="AE46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3875,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="3">
         <v>2700</v>
@@ -3883,8 +3988,8 @@
       <c r="AB47" s="3">
         <v>2700</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
+      <c r="AC47" s="3">
+        <v>2700</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>4</v>
@@ -3892,31 +3997,34 @@
       <c r="AE47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
@@ -3925,16 +4033,16 @@
         <v>1200</v>
       </c>
       <c r="M48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N48" s="3">
         <v>1300</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+        <v>1300</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3951,8 +4059,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3981,49 +4089,52 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E49" s="3">
         <v>34400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>59400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>59600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>59800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>60100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>28600</v>
       </c>
       <c r="Q49" s="3">
         <v>28600</v>
@@ -4046,14 +4157,14 @@
       <c r="W49" s="3">
         <v>28600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
+      <c r="X49" s="3">
+        <v>28600</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -4070,8 +4181,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,8 +4365,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4257,10 +4377,10 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -4286,8 +4406,8 @@
       <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>400</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -4301,8 +4421,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -4313,15 +4433,15 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2600</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4337,8 +4457,11 @@
       <c r="AE52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,49 +4549,52 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E54" s="3">
         <v>37000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>28600</v>
       </c>
       <c r="Q54" s="3">
         <v>28600</v>
@@ -4491,23 +4617,23 @@
       <c r="W54" s="3">
         <v>28600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="X54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="3">
         <v>2800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3100</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>3000</v>
       </c>
       <c r="AB54" s="3">
         <v>3000</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
+      <c r="AC54" s="3">
+        <v>3000</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>4</v>
@@ -4515,8 +4641,11 @@
       <c r="AE54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,79 +4711,80 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0</v>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
@@ -4661,8 +4792,8 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
+      <c r="AC57" s="3">
+        <v>100</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>4</v>
@@ -4670,35 +4801,38 @@
       <c r="AE57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E58" s="3">
         <v>12700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4711,11 +4845,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -4732,12 +4866,12 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4759,47 +4893,50 @@
       <c r="AE58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4812,8 +4949,8 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4824,23 +4961,23 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>100</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
+      <c r="AC59" s="3">
+        <v>100</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>4</v>
@@ -4848,88 +4985,91 @@
       <c r="AE59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E60" s="3">
         <v>20800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>200</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
+      <c r="AC60" s="3">
+        <v>200</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>4</v>
@@ -4937,38 +5077,41 @@
       <c r="AE60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -5026,47 +5169,50 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5094,8 +5240,8 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -5115,8 +5261,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,88 +5537,91 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E66" s="3">
         <v>29700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
       <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
         <v>100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>300</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>200</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
+      <c r="AC66" s="3">
+        <v>200</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>4</v>
@@ -5471,8 +5629,11 @@
       <c r="AE66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,88 +6031,91 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-88500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-30000</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-29900</v>
       </c>
       <c r="W72" s="3">
         <v>-29900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="X72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-27700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-27100</v>
       </c>
       <c r="AB72" s="3">
         <v>-27100</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
+      <c r="AC72" s="3">
+        <v>-27100</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>4</v>
@@ -5949,8 +6123,11 @@
       <c r="AE72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,79 +6399,82 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>28200</v>
       </c>
       <c r="Q76" s="3">
         <v>28200</v>
       </c>
       <c r="R76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="S76" s="3">
         <v>28300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28500</v>
-      </c>
-      <c r="V76" s="3">
-        <v>28600</v>
       </c>
       <c r="W76" s="3">
         <v>28600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="X76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2100</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>2800</v>
       </c>
       <c r="AA76" s="3">
         <v>2800</v>
@@ -6296,8 +6482,8 @@
       <c r="AB76" s="3">
         <v>2800</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
+      <c r="AC76" s="3">
+        <v>2800</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>4</v>
@@ -6305,8 +6491,11 @@
       <c r="AE76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,170 +6583,176 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
@@ -6569,16 +6764,19 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-900</v>
       </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,8 +6808,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6634,23 +6833,23 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6663,8 +6862,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -6699,8 +6898,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,8 +7358,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7153,44 +7370,44 @@
         <v>-1200</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -7198,20 +7415,20 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -7225,16 +7442,19 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>1500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-700</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,8 +7486,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7295,14 +7516,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -7325,11 +7546,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -7346,8 +7567,8 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
@@ -7355,8 +7576,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,8 +7760,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7562,26 +7792,26 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
@@ -7589,20 +7819,20 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7614,16 +7844,19 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>700</v>
       </c>
-      <c r="AE94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,53 +8254,56 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>900</v>
       </c>
       <c r="F100" s="3">
         <v>900</v>
       </c>
       <c r="G100" s="3">
+        <v>900</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>6100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -8065,20 +8311,20 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -8092,16 +8338,19 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-300</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,50 +8438,53 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -8249,11 +8501,11 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -8276,6 +8528,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
